--- a/template/pattern.xlsx
+++ b/template/pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sportday\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0076B6-C95E-412A-B870-644080568ADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822DF0B1-8B09-4082-BC6F-53785FE2B5F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{5E906B02-9056-4707-8B3F-5A11CDB58C6A}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="str">
-        <f>IF(INDEX($A$2:$F$13, G8, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G8, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G8, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G8, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="str">
-        <f>IF(INDEX($A$2:$F$13, G9, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G9, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G9, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G9, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
       <c r="J9" t="s">
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="str">
-        <f>IF(INDEX($A$2:$F$13, G10, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G10, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G10, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G10, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G10, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
       <c r="J10" t="s">
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="str">
-        <f>IF(INDEX($A$2:$F$13, G11, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G11, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G11, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="str">
-        <f>IF(INDEX($A$2:$F$13, G12, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G12, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G12, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G12, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G12, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="str">
-        <f>IF(INDEX($A$2:$F$13, G13, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G13, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G13, 6), "&lt;/tr&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="str">
-        <f>IF(INDEX($A$2:$F$13, G14, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G14, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G14, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G14, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="str">
-        <f>IF(INDEX($A$2:$F$13, G15, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G15, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G15, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G15, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G15, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -830,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="str">
-        <f>IF(INDEX($A$2:$F$13, G16, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G16, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G16, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="str">
-        <f>IF(INDEX($A$2:$F$13, G17, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G17, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G17, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G17, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="str">
-        <f>IF(INDEX($A$2:$F$13, G18, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G18, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G18, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G18, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G18, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="str">
-        <f>IF(INDEX($A$2:$F$13, G19, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G19, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G19, 6), "&lt;/tr&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="str">
-        <f>IF(INDEX($A$2:$F$13, G20, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G20, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G20, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G20, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G20, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -880,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="str">
-        <f>IF(INDEX($A$2:$F$13, G21, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G21, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G21, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="str">
-        <f>IF(INDEX($A$2:$F$13, G22, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G22, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G22, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G22, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -900,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="H23" t="str">
-        <f>IF(INDEX($A$2:$F$13, G23, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G23, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G23, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G23, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -910,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="H24" t="str">
-        <f>IF(INDEX($A$2:$F$13, G24, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G24, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G24, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G24, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G24, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="str">
-        <f>IF(INDEX($A$2:$F$13, G25, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G25, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G25, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G25, 6), "&lt;/tr&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="H26" t="str">
-        <f>IF(INDEX($A$2:$F$13, G26, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G26, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G26, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="H27" t="str">
-        <f>IF(INDEX($A$2:$F$13, G27, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G27, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G27, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G27, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -950,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="H28" t="str">
-        <f>IF(INDEX($A$2:$F$13, G28, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G28, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G28, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G28, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="H29" t="str">
-        <f>IF(INDEX($A$2:$F$13, G29, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G29, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G29, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G29, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="H30" t="str">
-        <f>IF(INDEX($A$2:$F$13, G30, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G30, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G30, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G30, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G30, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G30, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="H33" t="str">
-        <f>IF(INDEX($A$2:$F$13, G33, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G33, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G33, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G33, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
         <v>6</v>
       </c>
       <c r="H34" t="str">
-        <f>IF(INDEX($A$2:$F$13, G34, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G34, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G34, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G34, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="H35" t="str">
-        <f>IF(INDEX($A$2:$F$13, G35, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G35, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G35, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G35, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G35, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="H36" t="str">
-        <f>IF(INDEX($A$2:$F$13, G36, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G36, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G36, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G36, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="str">
-        <f>IF(INDEX($A$2:$F$13, G37, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G37, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G37, 6), "&lt;/tr&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="H38" t="str">
-        <f>IF(INDEX($A$2:$F$13, G38, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G38, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G38, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G38, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="H39" t="str">
-        <f>IF(INDEX($A$2:$F$13, G39, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G39, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G39, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G39, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="H40" t="str">
-        <f>IF(INDEX($A$2:$F$13, G40, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G40, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G40, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G40, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G40, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="H41" t="str">
-        <f>IF(INDEX($A$2:$F$13, G41, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G41, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G41, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="H42" t="str">
-        <f>IF(INDEX($A$2:$F$13, G42, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G42, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G42, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G42, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G42, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="H43" t="str">
-        <f>IF(INDEX($A$2:$F$13, G43, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G43, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G43, 6), "&lt;/tr&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="H44" t="str">
-        <f>IF(INDEX($A$2:$F$13, G44, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G44, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G44, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G44, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="H45" t="str">
-        <f>IF(INDEX($A$2:$F$13, G45, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G45, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G45, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G45, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G45, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="H46" t="str">
-        <f>IF(INDEX($A$2:$F$13, G46, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G46, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G46, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="H47" t="str">
-        <f>IF(INDEX($A$2:$F$13, G47, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G47, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G47, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G47, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="H48" t="str">
-        <f>IF(INDEX($A$2:$F$13, G48, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G48, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G48, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G48, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G48, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="H49" t="str">
-        <f>IF(INDEX($A$2:$F$13, G49, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G49, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G49, 6), "&lt;/tr&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="H50" t="str">
-        <f>IF(INDEX($A$2:$F$13, G50, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G50, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G50, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G50, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G50, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="H51" t="str">
-        <f>IF(INDEX($A$2:$F$13, G51, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G51, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G51, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="H52" t="str">
-        <f>IF(INDEX($A$2:$F$13, G52, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G52, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G52, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G52, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="H53" t="str">
-        <f>IF(INDEX($A$2:$F$13, G53, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G53, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G53, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G53, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="H54" t="str">
-        <f>IF(INDEX($A$2:$F$13, G54, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G54, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G54, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G54, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G54, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="H55" t="str">
-        <f>IF(INDEX($A$2:$F$13, G55, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G55, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G55, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G55, 6), "&lt;/tr&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="H56" t="str">
-        <f>IF(INDEX($A$2:$F$13, G56, 6), "&lt;/tr&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G56, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G56, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="str">
-        <f>IF(INDEX($A$2:$F$13, G57, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G57, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G57, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G57, 1) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="H58" t="str">
-        <f>IF(INDEX($A$2:$F$13, G58, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G58, 1) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G58, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G58, 2) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="H59" t="str">
-        <f>IF(INDEX($A$2:$F$13, G59, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G59, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G59, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G59, 3) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="H60" t="str">
-        <f>IF(INDEX($A$2:$F$13, G60, 6), "    &lt;th&gt;" &amp; INDEX($A$2:$E$13, G60, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G60, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G60, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G60, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G60, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
         <v/>
       </c>
     </row>
@@ -1289,71 +1289,119 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="H62" t="str">
+        <f>IF(INDEX($A$2:$F$13, G62, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G62, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G63">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="H63" t="str">
+        <f>IF(INDEX($A$2:$F$13, G63, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G63, 1) &amp; "&lt;/th&gt;", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G64">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H64" t="str">
+        <f>IF(INDEX($A$2:$F$13, G64, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G64, 2) &amp; "&lt;/th&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G65">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H65" t="str">
+        <f>IF(INDEX($A$2:$F$13, G65, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G65, 3) &amp; "&lt;/th&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G66">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H66" t="str">
+        <f>IF(INDEX($A$2:$F$13, G66, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G66, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G66, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G67">
         <f>G61+1</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H67" t="str">
+        <f>IF(INDEX($A$2:$F$13, G67, 6), "&lt;/tr&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G68">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H68" t="str">
+        <f>IF(INDEX($A$2:$F$13, G68, 6), "&lt;tr " &amp; VLOOKUP(INDEX($A$2:$F$13, G68, 2), $J$2:$K$7, 2, FALSE) &amp; "&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G69">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H69" t="str">
+        <f>IF(INDEX($A$2:$F$13, G69, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G69, 1) &amp; "&lt;/th&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G70">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H70" t="str">
+        <f>IF(INDEX($A$2:$F$13, G70, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G70, 2) &amp; "&lt;/th&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G71">
         <f>G65+1</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H71" t="str">
+        <f>IF(INDEX($A$2:$F$13, G71, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G71, 3) &amp; "&lt;/th&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G72">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H72" t="str">
+        <f>IF(INDEX($A$2:$F$13, G72, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G72, 4) &amp; VLOOKUP(INDEX($A$2:$E$13, G72, 5), $J$9:$K$10, 2, FALSE) &amp; "&lt;/th&gt;", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G73">
         <f>G67+1</f>
         <v>12</v>
+      </c>
+      <c r="H73" t="str">
+        <f>IF(INDEX($A$2:$F$13, G73, 6), "&lt;/tr&gt;", "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/template/pattern.xlsx
+++ b/template/pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sportday\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822DF0B1-8B09-4082-BC6F-53785FE2B5F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2D6ED-B7A3-4BD5-8B3B-442114911579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" xr2:uid="{5E906B02-9056-4707-8B3F-5A11CDB58C6A}"/>
   </bookViews>
@@ -150,11 +150,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,7 +477,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -517,12 +520,11 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" t="b">
-        <f>AND(NOT(ISBLANK(B2)), NOT(ISBLANK(C2)), NOT(ISBLANK(E2)), NOT(ISBLANK(D2)))</f>
+        <f>AND(NOT(ISBLANK(B2)), NOT(ISBLANK(E2)), NOT(ISBLANK(D2)))</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -545,7 +547,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" t="b">
         <f t="shared" ref="F3:F13" si="0">AND(NOT(ISBLANK(B3)), NOT(ISBLANK(C3)), NOT(ISBLANK(E3)), NOT(ISBLANK(D3)))</f>
@@ -571,7 +573,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" t="b">
         <f t="shared" si="0"/>
@@ -597,7 +599,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" t="b">
         <f t="shared" si="0"/>
@@ -607,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="str">
-        <f>IF(INDEX($A$2:$F$13, G5, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G5, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G5, 6), IF( INDEX($A$2:$E$13, G5, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G5, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
       <c r="J5" t="s">
@@ -623,7 +625,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" t="b">
         <f t="shared" si="0"/>
@@ -649,7 +651,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" t="b">
         <f t="shared" si="0"/>
@@ -675,7 +677,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" t="b">
         <f t="shared" si="0"/>
@@ -696,7 +698,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" t="b">
         <f t="shared" si="0"/>
@@ -723,7 +725,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" t="b">
         <f t="shared" si="0"/>
@@ -747,7 +749,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" t="b">
         <f t="shared" si="0"/>
@@ -758,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="str">
-        <f>IF(INDEX($A$2:$F$13, G11, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G11, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G11, 6), IF( INDEX($A$2:$E$13, G11, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G11, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -768,7 +770,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" t="b">
         <f t="shared" si="0"/>
@@ -789,7 +791,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" t="b">
         <f t="shared" si="0"/>
@@ -840,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="str">
-        <f>IF(INDEX($A$2:$F$13, G17, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G17, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G17, 6), IF( INDEX($A$2:$E$13, G17, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G17, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -900,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="H23" t="str">
-        <f>IF(INDEX($A$2:$F$13, G23, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G23, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G23, 6), IF( INDEX($A$2:$E$13, G23, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G23, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="H29" t="str">
-        <f>IF(INDEX($A$2:$F$13, G29, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G29, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G29, 6), IF( INDEX($A$2:$E$13, G29, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G29, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -1020,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="H35" t="str">
-        <f>IF(INDEX($A$2:$F$13, G35, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G35, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G35, 6), IF( INDEX($A$2:$E$13, G35, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G35, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -1080,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="H41" t="str">
-        <f>IF(INDEX($A$2:$F$13, G41, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G41, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G41, 6), IF( INDEX($A$2:$E$13, G41, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G41, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="H47" t="str">
-        <f>IF(INDEX($A$2:$F$13, G47, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G47, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G47, 6), IF( INDEX($A$2:$E$13, G47, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G47, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -1200,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="H53" t="str">
-        <f>IF(INDEX($A$2:$F$13, G53, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G53, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G53, 6), IF( INDEX($A$2:$E$13, G53, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G53, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -1260,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="H59" t="str">
-        <f>IF(INDEX($A$2:$F$13, G59, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G59, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G59, 6), IF( INDEX($A$2:$E$13, G59, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G59, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="str">
-        <f>IF(INDEX($A$2:$F$13, G65, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G65, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G65, 6), IF( INDEX($A$2:$E$13, G65, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G65, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1382,7 @@
         <v>12</v>
       </c>
       <c r="H71" t="str">
-        <f>IF(INDEX($A$2:$F$13, G71, 6), "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G71, 3) &amp; "&lt;/th&gt;", "")</f>
+        <f>IF(INDEX($A$2:$F$13, G71, 6), IF( INDEX($A$2:$E$13, G71, 3)="", "", "  &lt;th&gt;" &amp; INDEX($A$2:$E$13, G71, 3) &amp; "&lt;/th&gt;"), "")</f>
         <v/>
       </c>
     </row>
